--- a/doc/01.项目启动文档-第x组.xlsx
+++ b/doc/01.项目启动文档-第x组.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pan\Desktop\【项目成果物】第X组-项目名称-华科\【项目成果物】第X组-项目名称\03.项目文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arch_\Desktop\Work\CausedByEating\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C04FF2-20DD-4FFA-BE39-A2AD04BF7628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A53CED-C1FB-4441-BAE2-F01D40AA175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="人员分组表" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,37 @@
   </si>
   <si>
     <t>后端，编写文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>基本框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue路由构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vue-cli框架与pinia封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物列表渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +508,25 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -489,26 +535,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,18 +823,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="8.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -811,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -819,7 +850,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -835,38 +866,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09345C04-CA22-4810-B0AB-A5FAFFA6DEF5}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="7"/>
-    <col min="2" max="2" width="17.88671875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="7"/>
+    <col min="2" max="2" width="17.875" style="9" customWidth="1"/>
     <col min="3" max="3" width="18" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
@@ -886,11 +917,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="11">
@@ -903,11 +934,11 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="11">
@@ -920,11 +951,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="11">
@@ -937,11 +968,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="11">
@@ -954,11 +985,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11">
@@ -971,11 +1002,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="11">
@@ -988,11 +1019,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="11">
@@ -1005,11 +1036,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="11">
@@ -1022,11 +1053,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="20" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="11">
@@ -1039,11 +1070,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="11">
@@ -1056,11 +1087,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="11">
@@ -1073,11 +1104,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="11">
@@ -1090,11 +1121,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="20" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="11">
@@ -1107,11 +1138,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="20" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="11">
@@ -1124,11 +1155,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="11">
@@ -1141,61 +1172,109 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+    <row r="18" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11">
+        <v>45467</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+    <row r="19" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11">
+        <v>45474</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11">
+        <v>45474</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+    <row r="21" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="11">
+        <v>45474</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+    <row r="22" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="11">
+        <v>45474</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+    <row r="23" spans="1:7" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="11">
+        <v>45474</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1204,7 +1283,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1213,7 +1292,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1222,7 +1301,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1231,9 +1310,27 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
@@ -1241,11 +1338,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D17" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D19" xr:uid="{3DA0CCCC-02EA-47CF-8712-18094529F906}">
       <formula1>"未开始,进行中,已完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1257,15 +1355,15 @@
       <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="14"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="14"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1373,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
@@ -1285,47 +1383,47 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="65.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
@@ -1339,7 +1437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
@@ -1353,66 +1451,66 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" ht="130.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1427,22 +1525,22 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="15"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1456,11 +1554,11 @@
         <v>21</v>
       </c>
       <c r="E2" s="17"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1468,9 +1566,9 @@
       <c r="C3" s="16"/>
       <c r="D3" s="18"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1478,9 +1576,9 @@
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -1488,9 +1586,9 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1498,9 +1596,9 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1508,9 +1606,9 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1518,9 +1616,9 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1528,7 +1626,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
